--- a/data/trans_camb/P6904-Provincia-trans_camb.xlsx
+++ b/data/trans_camb/P6904-Provincia-trans_camb.xlsx
@@ -567,7 +567,7 @@
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
@@ -582,7 +582,7 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="H2" s="3" t="inlineStr">
@@ -597,7 +597,7 @@
       </c>
       <c r="J2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="K2" s="3" t="inlineStr">

--- a/data/trans_camb/P6904-Provincia-trans_camb.xlsx
+++ b/data/trans_camb/P6904-Provincia-trans_camb.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal cambio" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cambio" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -637,12 +637,12 @@
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-25,86</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-8,77</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
@@ -652,12 +652,12 @@
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>16,38</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>30,8</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
@@ -667,12 +667,12 @@
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-8,64</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>7,57</t>
         </is>
       </c>
     </row>
@@ -690,42 +690,42 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
+          <t>-46,36; -5,19</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>-34,49; 14,81</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="E5" s="2" t="inlineStr">
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>-6,58; 39,89</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>2,42; 53,09</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-25,18; 7,51</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-12,15; 26,87</t>
         </is>
       </c>
     </row>
@@ -743,42 +743,42 @@
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
+          <t>-38,95%</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>-13,2%</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="E6" s="2" t="inlineStr">
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>30,76%</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>57,85%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
         <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-14,13%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>12,39%</t>
         </is>
       </c>
     </row>
@@ -796,42 +796,42 @@
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
+          <t>-63,37; -10,46</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>-47,81; 25,29</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="E7" s="2" t="inlineStr">
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>-10,85; 113,49</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>5,58; 144,23</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-35,67; 15,46</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-16,69; 52,15</t>
         </is>
       </c>
     </row>
@@ -848,47 +848,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>14,9</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>24,85</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>5,55</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-20,2</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>21,05</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-5,95</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,2</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>23,8</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,31</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,29; 33,15</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>8,26; 39,23</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-19,04; 25,31</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-42,73; 7,52</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,53; 41,99</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-27,73; 16,0</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-12,41; 15,64</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>9,94; 36,29</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-12,87; 15,28</t>
         </is>
       </c>
     </row>
@@ -954,47 +954,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>29,69%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>49,53%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>11,06%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-34,58%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>36,03%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-10,18%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>4,17%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>45,13%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>2,49%</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,9; 86,08</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>14,29; 103,22</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-33,51; 60,95</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-62,89; 16,97</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,22; 100,79</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-39,51; 36,73</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-21,64; 33,56</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>16,74; 81,99</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-22,52; 33,8</t>
         </is>
       </c>
     </row>
@@ -1064,47 +1064,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>7,44</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>28,85</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-2,7</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,15</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>23,52</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>15,18</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>5,51</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>26,91</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,49</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-16,48; 32,06</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>4,91; 48,68</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-25,38; 19,33</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-26,59; 34,8</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-13,18; 54,24</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-10,28; 37,79</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-13,32; 26,18</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>3,93; 43,25</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-11,76; 20,55</t>
         </is>
       </c>
     </row>
@@ -1170,47 +1170,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>13,75%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>53,36%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-4,99%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>10,2%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>57,81%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>37,31%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>11,22%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>54,81%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>9,15%</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-25,45; 79,04</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>10,79; 127,53</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-38,15; 48,71</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-53,8; 138,14</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-22,84; 245,79</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-16,76; 167,74</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-22,96; 69,2</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>9,0; 113,82</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-19,48; 54,38</t>
         </is>
       </c>
     </row>
@@ -1280,47 +1280,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>12,91</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>27,25</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>34,19</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>17,9</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>24,48</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>41,08</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>14,86</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>25,82</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>38,13</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,25; 30,96</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>4,07; 48,46</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>11,1; 53,24</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,3; 42,42</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,92; 50,15</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>16,72; 63,34</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,75; 29,24</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>9,34; 42,12</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>24,25; 51,88</t>
         </is>
       </c>
     </row>
@@ -1386,47 +1386,47 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>30,97%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>65,37%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>82,03%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>43,49%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>59,5%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>99,83%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>35,79%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>62,15%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>91,8%</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-8,93; 99,98</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>8,39; 162,06</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>24,07; 178,55</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-10,48; 187,82</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,57; 219,53</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>28,23; 292,81</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,01; 93,55</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>19,29; 127,79</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>48,43; 163,01</t>
         </is>
       </c>
     </row>
@@ -1496,47 +1496,47 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>48,21</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>17,33</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>6,96</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>51,18</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>69,37</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>30,72</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>44,74</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>30,7</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>12,27</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>18,98; 70,11</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-16,63; 50,93</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-22,13; 34,99</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,15; 82,58</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>10,79; 100,0</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-13,63; 55,38</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>20,48; 65,67</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,36; 56,83</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-10,55; 34,61</t>
         </is>
       </c>
     </row>
@@ -1602,47 +1602,47 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>121,61%</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>43,72%</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>17,57%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>357,11%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>484,02%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>214,38%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>132,59%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>90,97%</t>
         </is>
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>36,35%</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
+          <t>38,94; 330,81</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>-33,23; 204,18</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>-40,74; 148,39</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="D23" s="2" t="inlineStr">
+      <c r="G23" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="E23" s="2" t="inlineStr">
+      <c r="H23" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="F23" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G23" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H23" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>44,37; 330,99</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>6,96; 283,04</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-23,99; 172,91</t>
         </is>
       </c>
     </row>
@@ -1712,47 +1712,47 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>16,19</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-4,89</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>21,53</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-15,61</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>45,72</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>15,65</t>
         </is>
       </c>
       <c r="I24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>7,96</t>
         </is>
       </c>
       <c r="J24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>7,69</t>
         </is>
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>18,94</t>
         </is>
       </c>
     </row>
@@ -1765,47 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,34; 37,57</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-28,74; 22,45</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,15; 41,43</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-47,16; 19,03</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>9,14; 74,34</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-12,15; 46,4</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-9,61; 25,86</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-16,18; 28,78</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,14; 35,31</t>
         </is>
       </c>
     </row>
@@ -1818,47 +1818,47 @@
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>40,24%</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-12,15%</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>53,52%</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-37,51%</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>109,88%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>37,61%</t>
         </is>
       </c>
       <c r="I26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>19,61%</t>
         </is>
       </c>
       <c r="J26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>18,96%</t>
         </is>
       </c>
       <c r="K26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>46,67%</t>
         </is>
       </c>
     </row>
@@ -1871,47 +1871,47 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-11,8; 139,32</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-59,0; 79,05</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,95; 150,02</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-85,94; 98,13</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>16,82; 393,82</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-19,84; 254,79</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-20,56; 88,52</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-32,9; 92,28</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>4,43; 121,61</t>
         </is>
       </c>
     </row>
@@ -1928,47 +1928,47 @@
       </c>
       <c r="C28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-7,8</t>
         </is>
       </c>
       <c r="D28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>16,88</t>
         </is>
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>7,87</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>5,13</t>
         </is>
       </c>
       <c r="G28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>6,65</t>
         </is>
       </c>
       <c r="H28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>14,58</t>
         </is>
       </c>
       <c r="I28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,42</t>
         </is>
       </c>
       <c r="J28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>12,87</t>
         </is>
       </c>
       <c r="K28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>11,73</t>
         </is>
       </c>
     </row>
@@ -1981,47 +1981,47 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-26,2; 10,09</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,92; 33,97</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,74; 24,79</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-13,52; 29,43</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-14,78; 25,91</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,81; 32,75</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-14,58; 12,38</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,02; 24,53</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,01; 22,63</t>
         </is>
       </c>
     </row>
@@ -2034,47 +2034,47 @@
       </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-15,89%</t>
         </is>
       </c>
       <c r="D30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>34,37%</t>
         </is>
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>16,02%</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>9,89%</t>
         </is>
       </c>
       <c r="G30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>12,81%</t>
         </is>
       </c>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>28,09%</t>
         </is>
       </c>
       <c r="I30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-2,83%</t>
         </is>
       </c>
       <c r="J30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>25,72%</t>
         </is>
       </c>
       <c r="K30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>23,44%</t>
         </is>
       </c>
     </row>
@@ -2087,47 +2087,47 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-47,67; 24,13</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,39; 84,19</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-13,28; 59,26</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-22,67; 75,28</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-24,06; 65,05</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,1; 81,85</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-26,68; 29,01</t>
         </is>
       </c>
       <c r="J31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,01; 56,75</t>
         </is>
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,14; 53,39</t>
         </is>
       </c>
     </row>
@@ -2144,47 +2144,47 @@
       </c>
       <c r="C32" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-21,24</t>
         </is>
       </c>
       <c r="D32" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-25,99</t>
         </is>
       </c>
       <c r="E32" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>12,64</t>
         </is>
       </c>
       <c r="F32" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-8,01</t>
         </is>
       </c>
       <c r="G32" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-11,05</t>
         </is>
       </c>
       <c r="H32" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-10,28</t>
         </is>
       </c>
       <c r="I32" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-15,85</t>
         </is>
       </c>
       <c r="J32" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-20,67</t>
         </is>
       </c>
       <c r="K32" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,4</t>
         </is>
       </c>
     </row>
@@ -2197,47 +2197,47 @@
       </c>
       <c r="C33" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-37,86; -4,21</t>
         </is>
       </c>
       <c r="D33" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-43,4; -6,71</t>
         </is>
       </c>
       <c r="E33" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,81; 26,68</t>
         </is>
       </c>
       <c r="F33" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-33,56; 13,59</t>
         </is>
       </c>
       <c r="G33" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-35,85; 13,88</t>
         </is>
       </c>
       <c r="H33" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-27,4; 13,55</t>
         </is>
       </c>
       <c r="I33" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-30,61; -0,47</t>
         </is>
       </c>
       <c r="J33" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-34,35; -4,1</t>
         </is>
       </c>
       <c r="K33" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-11,07; 13,09</t>
         </is>
       </c>
     </row>
@@ -2250,47 +2250,47 @@
       </c>
       <c r="C34" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-33,77%</t>
         </is>
       </c>
       <c r="D34" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-41,32%</t>
         </is>
       </c>
       <c r="E34" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>20,1%</t>
         </is>
       </c>
       <c r="F34" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-12,49%</t>
         </is>
       </c>
       <c r="G34" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-17,23%</t>
         </is>
       </c>
       <c r="H34" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-16,03%</t>
         </is>
       </c>
       <c r="I34" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-25,05%</t>
         </is>
       </c>
       <c r="J34" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-32,67%</t>
         </is>
       </c>
       <c r="K34" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>2,22%</t>
         </is>
       </c>
     </row>
@@ -2303,47 +2303,47 @@
       </c>
       <c r="C35" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-56,87; -6,53</t>
         </is>
       </c>
       <c r="D35" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-66,64; -12,02</t>
         </is>
       </c>
       <c r="E35" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,46; 48,15</t>
         </is>
       </c>
       <c r="F35" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-46,65; 25,5</t>
         </is>
       </c>
       <c r="G35" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-52,6; 25,08</t>
         </is>
       </c>
       <c r="H35" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-38,58; 24,34</t>
         </is>
       </c>
       <c r="I35" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-46,33; -1,86</t>
         </is>
       </c>
       <c r="J35" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-51,91; -7,2</t>
         </is>
       </c>
       <c r="K35" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-16,47; 22,77</t>
         </is>
       </c>
     </row>
@@ -2360,47 +2360,47 @@
       </c>
       <c r="C36" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,59</t>
         </is>
       </c>
       <c r="D36" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>7,31</t>
         </is>
       </c>
       <c r="E36" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>9,46</t>
         </is>
       </c>
       <c r="F36" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,09</t>
         </is>
       </c>
       <c r="G36" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>15,45</t>
         </is>
       </c>
       <c r="H36" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>10,96</t>
         </is>
       </c>
       <c r="I36" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,49</t>
         </is>
       </c>
       <c r="J36" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>10,39</t>
         </is>
       </c>
       <c r="K36" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>10,13</t>
         </is>
       </c>
     </row>
@@ -2413,47 +2413,47 @@
       </c>
       <c r="C37" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,44; 10,88</t>
         </is>
       </c>
       <c r="D37" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,59; 15,06</t>
         </is>
       </c>
       <c r="E37" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,11; 16,87</t>
         </is>
       </c>
       <c r="F37" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-9,82; 9,17</t>
         </is>
       </c>
       <c r="G37" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>5,95; 24,23</t>
         </is>
       </c>
       <c r="H37" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,94; 19,55</t>
         </is>
       </c>
       <c r="I37" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,35; 7,32</t>
         </is>
       </c>
       <c r="J37" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>4,77; 16,24</t>
         </is>
       </c>
       <c r="K37" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>4,56; 15,73</t>
         </is>
       </c>
     </row>
@@ -2466,47 +2466,47 @@
       </c>
       <c r="C38" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>4,95%</t>
         </is>
       </c>
       <c r="D38" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>14,0%</t>
         </is>
       </c>
       <c r="E38" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>18,1%</t>
         </is>
       </c>
       <c r="F38" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-0,17%</t>
         </is>
       </c>
       <c r="G38" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>29,86%</t>
         </is>
       </c>
       <c r="H38" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>21,18%</t>
         </is>
       </c>
       <c r="I38" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>2,86%</t>
         </is>
       </c>
       <c r="J38" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>19,95%</t>
         </is>
       </c>
       <c r="K38" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>19,44%</t>
         </is>
       </c>
     </row>
@@ -2519,47 +2519,47 @@
       </c>
       <c r="C39" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-8,12; 21,85</t>
         </is>
       </c>
       <c r="D39" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,06; 30,57</t>
         </is>
       </c>
       <c r="E39" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>3,26; 33,99</t>
         </is>
       </c>
       <c r="F39" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-17,65; 19,28</t>
         </is>
       </c>
       <c r="G39" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>10,39; 52,6</t>
         </is>
       </c>
       <c r="H39" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>3,02; 42,36</t>
         </is>
       </c>
       <c r="I39" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,96; 14,97</t>
         </is>
       </c>
       <c r="J39" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>9,31; 32,96</t>
         </is>
       </c>
       <c r="K39" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>8,84; 33,06</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P6904-Provincia-trans_camb.xlsx
+++ b/data/trans_camb/P6904-Provincia-trans_camb.xlsx
@@ -632,7 +632,7 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>-7,81</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
@@ -642,12 +642,12 @@
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-8,77</t>
+          <t>-8,69</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>12,94</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -657,12 +657,12 @@
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>30,8</t>
+          <t>29,85</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>0,61</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
@@ -672,7 +672,7 @@
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>7,57</t>
+          <t>6,62</t>
         </is>
       </c>
     </row>
@@ -685,7 +685,7 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-31,46; 13,02</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
@@ -695,12 +695,12 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-34,49; 14,81</t>
+          <t>-35,07; 14,95</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-14,99; 39,2</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -710,12 +710,12 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>2,42; 53,09</t>
+          <t>-0,17; 52,23</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-17,33; 18,43</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -725,7 +725,7 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-12,15; 26,87</t>
+          <t>-13,27; 25,98</t>
         </is>
       </c>
     </row>
@@ -738,7 +738,7 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-11,76%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
@@ -748,12 +748,12 @@
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-13,2%</t>
+          <t>-13,09%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>24,3%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -763,12 +763,12 @@
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>57,85%</t>
+          <t>56,06%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,99%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
@@ -778,7 +778,7 @@
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>12,39%</t>
+          <t>10,83%</t>
         </is>
       </c>
     </row>
@@ -791,7 +791,7 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-41,95; 22,5</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
@@ -801,12 +801,12 @@
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-47,81; 25,29</t>
+          <t>-48,06; 26,23</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-22,86; 102,42</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -816,12 +816,12 @@
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>5,58; 144,23</t>
+          <t>2,9; 141,87</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-25,44; 37,56</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -831,7 +831,7 @@
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-16,69; 52,15</t>
+          <t>-19,02; 50,6</t>
         </is>
       </c>
     </row>
@@ -858,7 +858,7 @@
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>5,55</t>
+          <t>6,85</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
@@ -873,7 +873,7 @@
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-5,95</t>
+          <t>-6,02</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
@@ -888,7 +888,7 @@
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>1,31</t>
+          <t>1,99</t>
         </is>
       </c>
     </row>
@@ -911,7 +911,7 @@
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-19,04; 25,31</t>
+          <t>-17,93; 26,44</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -926,7 +926,7 @@
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-27,73; 16,0</t>
+          <t>-27,83; 15,97</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
@@ -941,7 +941,7 @@
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-12,87; 15,28</t>
+          <t>-12,29; 16,64</t>
         </is>
       </c>
     </row>
@@ -964,7 +964,7 @@
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>11,06%</t>
+          <t>13,66%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
@@ -979,7 +979,7 @@
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-10,18%</t>
+          <t>-10,31%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
@@ -994,7 +994,7 @@
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>2,49%</t>
+          <t>3,78%</t>
         </is>
       </c>
     </row>
@@ -1017,7 +1017,7 @@
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-33,51; 60,95</t>
+          <t>-30,92; 63,31</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
@@ -1032,7 +1032,7 @@
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-39,51; 36,73</t>
+          <t>-39,32; 36,37</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
@@ -1047,7 +1047,7 @@
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-22,52; 33,8</t>
+          <t>-21,68; 35,31</t>
         </is>
       </c>
     </row>
@@ -1074,7 +1074,7 @@
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-2,7</t>
+          <t>-2,83</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
@@ -1089,7 +1089,7 @@
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>15,18</t>
+          <t>15,24</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
@@ -1104,7 +1104,7 @@
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>4,49</t>
+          <t>4,41</t>
         </is>
       </c>
     </row>
@@ -1127,7 +1127,7 @@
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-25,38; 19,33</t>
+          <t>-25,4; 19,18</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
@@ -1142,7 +1142,7 @@
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-10,28; 37,79</t>
+          <t>-10,38; 37,86</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
@@ -1157,7 +1157,7 @@
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-11,76; 20,55</t>
+          <t>-11,68; 20,83</t>
         </is>
       </c>
     </row>
@@ -1180,7 +1180,7 @@
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>-4,99%</t>
+          <t>-5,24%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
@@ -1195,7 +1195,7 @@
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>37,31%</t>
+          <t>37,45%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
@@ -1210,7 +1210,7 @@
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>9,15%</t>
+          <t>8,98%</t>
         </is>
       </c>
     </row>
@@ -1233,7 +1233,7 @@
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-38,15; 48,71</t>
+          <t>-38,78; 48,56</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
@@ -1248,7 +1248,7 @@
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-16,76; 167,74</t>
+          <t>-16,63; 167,48</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
@@ -1263,7 +1263,7 @@
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-19,48; 54,38</t>
+          <t>-19,4; 54,28</t>
         </is>
       </c>
     </row>
@@ -1280,7 +1280,7 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>12,91</t>
+          <t>9,4</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
@@ -1290,12 +1290,12 @@
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>34,19</t>
+          <t>34,76</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>17,9</t>
+          <t>11,13</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
@@ -1305,12 +1305,12 @@
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>41,08</t>
+          <t>46,33</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>14,86</t>
+          <t>10,03</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
@@ -1320,7 +1320,7 @@
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>38,13</t>
+          <t>42,27</t>
         </is>
       </c>
     </row>
@@ -1333,7 +1333,7 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-4,25; 30,96</t>
+          <t>-11,8; 30,79</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
@@ -1343,12 +1343,12 @@
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>11,1; 53,24</t>
+          <t>11,77; 53,89</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-6,3; 42,42</t>
+          <t>-17,11; 38,05</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
@@ -1358,12 +1358,12 @@
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>16,72; 63,34</t>
+          <t>24,45; 73,12</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>0,75; 29,24</t>
+          <t>-6,83; 25,02</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
@@ -1373,7 +1373,7 @@
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>24,25; 51,88</t>
+          <t>28,29; 59,94</t>
         </is>
       </c>
     </row>
@@ -1386,7 +1386,7 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>30,97%</t>
+          <t>22,55%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
@@ -1396,12 +1396,12 @@
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>82,03%</t>
+          <t>83,39%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>43,49%</t>
+          <t>27,06%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
@@ -1411,12 +1411,12 @@
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>99,83%</t>
+          <t>112,58%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>35,79%</t>
+          <t>24,14%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
@@ -1426,7 +1426,7 @@
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>91,8%</t>
+          <t>101,76%</t>
         </is>
       </c>
     </row>
@@ -1439,7 +1439,7 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-8,93; 99,98</t>
+          <t>-23,17; 99,99</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
@@ -1449,12 +1449,12 @@
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>24,07; 178,55</t>
+          <t>25,18; 179,41</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-10,48; 187,82</t>
+          <t>-31,45; 152,05</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
@@ -1464,12 +1464,12 @@
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>28,23; 292,81</t>
+          <t>37,32; 343,83</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>2,01; 93,55</t>
+          <t>-14,79; 73,66</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
@@ -1479,7 +1479,7 @@
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>48,43; 163,01</t>
+          <t>55,87; 188,58</t>
         </is>
       </c>
     </row>
@@ -1506,7 +1506,7 @@
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>6,96</t>
+          <t>7,25</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
@@ -1521,7 +1521,7 @@
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>30,72</t>
+          <t>30,85</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
@@ -1536,7 +1536,7 @@
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>12,27</t>
+          <t>12,49</t>
         </is>
       </c>
     </row>
@@ -1559,7 +1559,7 @@
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-22,13; 34,99</t>
+          <t>-21,99; 35,32</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
@@ -1574,7 +1574,7 @@
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-13,63; 55,38</t>
+          <t>-13,75; 55,36</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
@@ -1589,7 +1589,7 @@
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-10,55; 34,61</t>
+          <t>-9,92; 34,9</t>
         </is>
       </c>
     </row>
@@ -1612,7 +1612,7 @@
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>17,57%</t>
+          <t>18,28%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
@@ -1627,7 +1627,7 @@
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>214,38%</t>
+          <t>215,26%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
@@ -1642,7 +1642,7 @@
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>36,35%</t>
+          <t>37,01%</t>
         </is>
       </c>
     </row>
@@ -1665,7 +1665,7 @@
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-40,74; 148,39</t>
+          <t>-39,84; 149,61</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
@@ -1695,7 +1695,7 @@
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>-23,99; 172,91</t>
+          <t>-23,7; 173,04</t>
         </is>
       </c>
     </row>
@@ -1722,7 +1722,7 @@
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>21,53</t>
+          <t>21,56</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
@@ -1737,7 +1737,7 @@
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>15,65</t>
+          <t>15,67</t>
         </is>
       </c>
       <c r="I24" s="2" t="inlineStr">
@@ -1752,7 +1752,7 @@
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>18,94</t>
+          <t>19,01</t>
         </is>
       </c>
     </row>
@@ -1775,7 +1775,7 @@
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-2,15; 41,43</t>
+          <t>-2,13; 41,61</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
@@ -1790,7 +1790,7 @@
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>-12,15; 46,4</t>
+          <t>-12,14; 46,27</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
@@ -1805,7 +1805,7 @@
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>2,14; 35,31</t>
+          <t>2,03; 35,21</t>
         </is>
       </c>
     </row>
@@ -1828,7 +1828,7 @@
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>53,52%</t>
+          <t>53,6%</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
@@ -1843,7 +1843,7 @@
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>37,61%</t>
+          <t>37,66%</t>
         </is>
       </c>
       <c r="I26" s="2" t="inlineStr">
@@ -1858,7 +1858,7 @@
       </c>
       <c r="K26" s="2" t="inlineStr">
         <is>
-          <t>46,67%</t>
+          <t>46,85%</t>
         </is>
       </c>
     </row>
@@ -1881,7 +1881,7 @@
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-3,95; 150,02</t>
+          <t>-3,76; 150,89</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
@@ -1896,7 +1896,7 @@
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>-19,84; 254,79</t>
+          <t>-19,74; 255,31</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
@@ -1911,7 +1911,7 @@
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>4,43; 121,61</t>
+          <t>4,45; 122,08</t>
         </is>
       </c>
     </row>
@@ -1938,7 +1938,7 @@
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>7,87</t>
+          <t>7,54</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr">
@@ -1953,7 +1953,7 @@
       </c>
       <c r="H28" s="2" t="inlineStr">
         <is>
-          <t>14,58</t>
+          <t>14,13</t>
         </is>
       </c>
       <c r="I28" s="2" t="inlineStr">
@@ -1968,7 +1968,7 @@
       </c>
       <c r="K28" s="2" t="inlineStr">
         <is>
-          <t>11,73</t>
+          <t>11,23</t>
         </is>
       </c>
     </row>
@@ -1991,7 +1991,7 @@
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>-7,74; 24,79</t>
+          <t>-7,89; 24,38</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
@@ -2006,7 +2006,7 @@
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>-2,81; 32,75</t>
+          <t>-3,51; 32,06</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
@@ -2021,7 +2021,7 @@
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>-1,01; 22,63</t>
+          <t>-1,92; 22,18</t>
         </is>
       </c>
     </row>
@@ -2044,7 +2044,7 @@
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>16,02%</t>
+          <t>15,35%</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
@@ -2059,7 +2059,7 @@
       </c>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>28,09%</t>
+          <t>27,21%</t>
         </is>
       </c>
       <c r="I30" s="2" t="inlineStr">
@@ -2074,7 +2074,7 @@
       </c>
       <c r="K30" s="2" t="inlineStr">
         <is>
-          <t>23,44%</t>
+          <t>22,43%</t>
         </is>
       </c>
     </row>
@@ -2097,7 +2097,7 @@
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>-13,28; 59,26</t>
+          <t>-13,79; 58,62</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
@@ -2112,7 +2112,7 @@
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>-5,1; 81,85</t>
+          <t>-5,9; 80,73</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
@@ -2127,7 +2127,7 @@
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>-1,14; 53,39</t>
+          <t>-2,02; 52,0</t>
         </is>
       </c>
     </row>
@@ -2154,7 +2154,7 @@
       </c>
       <c r="E32" s="2" t="inlineStr">
         <is>
-          <t>12,64</t>
+          <t>12,82</t>
         </is>
       </c>
       <c r="F32" s="2" t="inlineStr">
@@ -2169,7 +2169,7 @@
       </c>
       <c r="H32" s="2" t="inlineStr">
         <is>
-          <t>-10,28</t>
+          <t>-10,65</t>
         </is>
       </c>
       <c r="I32" s="2" t="inlineStr">
@@ -2184,7 +2184,7 @@
       </c>
       <c r="K32" s="2" t="inlineStr">
         <is>
-          <t>1,4</t>
+          <t>1,52</t>
         </is>
       </c>
     </row>
@@ -2207,7 +2207,7 @@
       </c>
       <c r="E33" s="2" t="inlineStr">
         <is>
-          <t>-1,81; 26,68</t>
+          <t>-1,49; 26,78</t>
         </is>
       </c>
       <c r="F33" s="2" t="inlineStr">
@@ -2222,7 +2222,7 @@
       </c>
       <c r="H33" s="2" t="inlineStr">
         <is>
-          <t>-27,4; 13,55</t>
+          <t>-28,03; 11,44</t>
         </is>
       </c>
       <c r="I33" s="2" t="inlineStr">
@@ -2237,7 +2237,7 @@
       </c>
       <c r="K33" s="2" t="inlineStr">
         <is>
-          <t>-11,07; 13,09</t>
+          <t>-10,64; 13,29</t>
         </is>
       </c>
     </row>
@@ -2260,7 +2260,7 @@
       </c>
       <c r="E34" s="2" t="inlineStr">
         <is>
-          <t>20,1%</t>
+          <t>20,38%</t>
         </is>
       </c>
       <c r="F34" s="2" t="inlineStr">
@@ -2275,7 +2275,7 @@
       </c>
       <c r="H34" s="2" t="inlineStr">
         <is>
-          <t>-16,03%</t>
+          <t>-16,61%</t>
         </is>
       </c>
       <c r="I34" s="2" t="inlineStr">
@@ -2290,7 +2290,7 @@
       </c>
       <c r="K34" s="2" t="inlineStr">
         <is>
-          <t>2,22%</t>
+          <t>2,4%</t>
         </is>
       </c>
     </row>
@@ -2313,7 +2313,7 @@
       </c>
       <c r="E35" s="2" t="inlineStr">
         <is>
-          <t>-2,46; 48,15</t>
+          <t>-2,14; 48,17</t>
         </is>
       </c>
       <c r="F35" s="2" t="inlineStr">
@@ -2328,7 +2328,7 @@
       </c>
       <c r="H35" s="2" t="inlineStr">
         <is>
-          <t>-38,58; 24,34</t>
+          <t>-39,3; 21,85</t>
         </is>
       </c>
       <c r="I35" s="2" t="inlineStr">
@@ -2343,7 +2343,7 @@
       </c>
       <c r="K35" s="2" t="inlineStr">
         <is>
-          <t>-16,47; 22,77</t>
+          <t>-15,65; 22,75</t>
         </is>
       </c>
     </row>
@@ -2370,7 +2370,7 @@
       </c>
       <c r="E36" s="2" t="inlineStr">
         <is>
-          <t>9,46</t>
+          <t>9,25</t>
         </is>
       </c>
       <c r="F36" s="2" t="inlineStr">
@@ -2385,7 +2385,7 @@
       </c>
       <c r="H36" s="2" t="inlineStr">
         <is>
-          <t>10,96</t>
+          <t>13,54</t>
         </is>
       </c>
       <c r="I36" s="2" t="inlineStr">
@@ -2400,7 +2400,7 @@
       </c>
       <c r="K36" s="2" t="inlineStr">
         <is>
-          <t>10,13</t>
+          <t>11,35</t>
         </is>
       </c>
     </row>
@@ -2423,7 +2423,7 @@
       </c>
       <c r="E37" s="2" t="inlineStr">
         <is>
-          <t>2,11; 16,87</t>
+          <t>1,81; 16,6</t>
         </is>
       </c>
       <c r="F37" s="2" t="inlineStr">
@@ -2438,7 +2438,7 @@
       </c>
       <c r="H37" s="2" t="inlineStr">
         <is>
-          <t>1,94; 19,55</t>
+          <t>3,82; 24,59</t>
         </is>
       </c>
       <c r="I37" s="2" t="inlineStr">
@@ -2453,7 +2453,7 @@
       </c>
       <c r="K37" s="2" t="inlineStr">
         <is>
-          <t>4,56; 15,73</t>
+          <t>5,7; 18,53</t>
         </is>
       </c>
     </row>
@@ -2476,7 +2476,7 @@
       </c>
       <c r="E38" s="2" t="inlineStr">
         <is>
-          <t>18,1%</t>
+          <t>17,71%</t>
         </is>
       </c>
       <c r="F38" s="2" t="inlineStr">
@@ -2491,7 +2491,7 @@
       </c>
       <c r="H38" s="2" t="inlineStr">
         <is>
-          <t>21,18%</t>
+          <t>26,16%</t>
         </is>
       </c>
       <c r="I38" s="2" t="inlineStr">
@@ -2506,7 +2506,7 @@
       </c>
       <c r="K38" s="2" t="inlineStr">
         <is>
-          <t>19,44%</t>
+          <t>21,78%</t>
         </is>
       </c>
     </row>
@@ -2529,7 +2529,7 @@
       </c>
       <c r="E39" s="2" t="inlineStr">
         <is>
-          <t>3,26; 33,99</t>
+          <t>3,4; 34,08</t>
         </is>
       </c>
       <c r="F39" s="2" t="inlineStr">
@@ -2544,7 +2544,7 @@
       </c>
       <c r="H39" s="2" t="inlineStr">
         <is>
-          <t>3,02; 42,36</t>
+          <t>6,64; 52,33</t>
         </is>
       </c>
       <c r="I39" s="2" t="inlineStr">
@@ -2559,7 +2559,7 @@
       </c>
       <c r="K39" s="2" t="inlineStr">
         <is>
-          <t>8,84; 33,06</t>
+          <t>10,26; 36,55</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P6904-Provincia-trans_camb.xlsx
+++ b/data/trans_camb/P6904-Provincia-trans_camb.xlsx
@@ -622,7 +622,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Almeria</t>
+          <t>Almería</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-31,46; 13,02</t>
+          <t>-30,4; 13,57</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-46,36; -5,19</t>
+          <t>-43,49; -3,29</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-35,07; 14,95</t>
+          <t>-36,01; 16,11</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-14,99; 39,2</t>
+          <t>-15,97; 39,26</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-6,58; 39,89</t>
+          <t>-9,44; 38,65</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-0,17; 52,23</t>
+          <t>0,51; 53,0</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-17,33; 18,43</t>
+          <t>-15,34; 18,38</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-25,18; 7,51</t>
+          <t>-24,52; 7,25</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-13,27; 25,98</t>
+          <t>-12,97; 24,37</t>
         </is>
       </c>
     </row>
@@ -791,54 +791,54 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-41,95; 22,5</t>
+          <t>-41,04; 23,78</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-63,37; -10,46</t>
+          <t>-59,38; -6,76</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-48,06; 26,23</t>
+          <t>-50,03; 27,21</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-22,86; 102,42</t>
+          <t>-22,82; 113,17</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-10,85; 113,49</t>
+          <t>-13,41; 102,84</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>2,9; 141,87</t>
+          <t>4,12; 152,91</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-25,44; 37,56</t>
+          <t>-23,56; 34,69</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-35,67; 15,46</t>
+          <t>-34,83; 13,57</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-19,02; 50,6</t>
+          <t>-18,67; 47,46</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Cadiz</t>
+          <t>Cádiz</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-4,29; 33,15</t>
+          <t>-1,45; 34,42</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>8,26; 39,23</t>
+          <t>8,18; 39,28</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-17,93; 26,44</t>
+          <t>-15,91; 29,48</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-42,73; 7,52</t>
+          <t>-43,47; 5,16</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-0,53; 41,99</t>
+          <t>-1,37; 43,0</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-27,83; 15,97</t>
+          <t>-28,83; 15,95</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-12,41; 15,64</t>
+          <t>-13,69; 17,54</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>9,94; 36,29</t>
+          <t>10,09; 36,03</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-12,29; 16,64</t>
+          <t>-13,76; 17,24</t>
         </is>
       </c>
     </row>
@@ -1007,54 +1007,54 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-6,9; 86,08</t>
+          <t>-2,38; 88,05</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>14,29; 103,22</t>
+          <t>13,13; 96,92</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-30,92; 63,31</t>
+          <t>-27,68; 71,05</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-62,89; 16,97</t>
+          <t>-63,95; 11,29</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-1,22; 100,79</t>
+          <t>-0,08; 98,08</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-39,32; 36,37</t>
+          <t>-40,65; 37,24</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-21,64; 33,56</t>
+          <t>-22,12; 39,38</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>16,74; 81,99</t>
+          <t>16,59; 81,69</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-21,68; 35,31</t>
+          <t>-23,45; 38,52</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Cordoba</t>
+          <t>Córdoba</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-16,48; 32,06</t>
+          <t>-19,27; 31,91</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>4,91; 48,68</t>
+          <t>5,94; 49,05</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-25,4; 19,18</t>
+          <t>-25,28; 18,66</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-26,59; 34,8</t>
+          <t>-25,42; 36,92</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-13,18; 54,24</t>
+          <t>-10,92; 55,54</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-10,38; 37,86</t>
+          <t>-10,96; 38,85</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-13,32; 26,18</t>
+          <t>-14,84; 25,22</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>3,93; 43,25</t>
+          <t>6,11; 44,77</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-11,68; 20,83</t>
+          <t>-13,22; 18,11</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-25,45; 79,04</t>
+          <t>-30,08; 77,49</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>10,79; 127,53</t>
+          <t>13,16; 125,97</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-38,78; 48,56</t>
+          <t>-37,4; 47,29</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-53,8; 138,14</t>
+          <t>-46,4; 143,48</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-22,84; 245,79</t>
+          <t>-18,28; 232,63</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-16,63; 167,48</t>
+          <t>-17,83; 183,12</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-22,96; 69,2</t>
+          <t>-26,02; 66,98</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>9,0; 113,82</t>
+          <t>12,7; 124,45</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-19,4; 54,28</t>
+          <t>-21,16; 45,92</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-11,8; 30,79</t>
+          <t>-11,07; 28,21</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>4,07; 48,46</t>
+          <t>7,49; 47,66</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>11,77; 53,89</t>
+          <t>10,65; 54,12</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-17,11; 38,05</t>
+          <t>-15,51; 36,48</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-3,92; 50,15</t>
+          <t>-3,92; 51,11</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>24,45; 73,12</t>
+          <t>24,05; 72,04</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-6,83; 25,02</t>
+          <t>-7,46; 24,81</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>9,34; 42,12</t>
+          <t>8,76; 41,86</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>28,29; 59,94</t>
+          <t>29,24; 60,85</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-23,17; 99,99</t>
+          <t>-24,23; 85,23</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>8,39; 162,06</t>
+          <t>14,66; 150,64</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>25,18; 179,41</t>
+          <t>22,39; 172,24</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-31,45; 152,05</t>
+          <t>-29,28; 154,09</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-7,57; 219,53</t>
+          <t>-7,54; 217,91</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>37,32; 343,83</t>
+          <t>33,36; 363,65</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-14,79; 73,66</t>
+          <t>-15,08; 74,9</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>19,29; 127,79</t>
+          <t>18,5; 129,15</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>55,87; 188,58</t>
+          <t>56,22; 192,32</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>18,98; 70,11</t>
+          <t>22,5; 72,69</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-16,63; 50,93</t>
+          <t>-18,14; 49,3</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-21,99; 35,32</t>
+          <t>-20,66; 33,52</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-3,15; 82,58</t>
+          <t>1,02; 83,19</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>10,79; 100,0</t>
+          <t>9,57; 100,0</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-13,75; 55,36</t>
+          <t>-15,32; 55,58</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>20,48; 65,67</t>
+          <t>19,56; 65,68</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>1,36; 56,83</t>
+          <t>0,92; 57,46</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-9,92; 34,9</t>
+          <t>-11,43; 33,37</t>
         </is>
       </c>
     </row>
@@ -1655,17 +1655,17 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>38,94; 330,81</t>
+          <t>39,91; 324,8</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-33,23; 204,18</t>
+          <t>-36,66; 190,92</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-39,84; 149,61</t>
+          <t>-41,37; 149,05</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
@@ -1685,24 +1685,24 @@
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>44,37; 330,99</t>
+          <t>36,7; 321,87</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>6,96; 283,04</t>
+          <t>1,4; 263,23</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>-23,7; 173,04</t>
+          <t>-21,92; 177,0</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>Jaen</t>
+          <t>Jaén</t>
         </is>
       </c>
       <c r="B24" s="3" t="inlineStr">
@@ -1765,47 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-6,34; 37,57</t>
+          <t>-4,7; 35,73</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-28,74; 22,45</t>
+          <t>-28,54; 20,62</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-2,13; 41,61</t>
+          <t>-1,16; 41,06</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>-47,16; 19,03</t>
+          <t>-50,48; 16,33</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>9,14; 74,34</t>
+          <t>-2,37; 73,55</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>-12,14; 46,27</t>
+          <t>-14,13; 44,03</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>-9,61; 25,86</t>
+          <t>-11,05; 25,86</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>-16,18; 28,78</t>
+          <t>-15,13; 29,5</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>2,03; 35,21</t>
+          <t>1,47; 36,25</t>
         </is>
       </c>
     </row>
@@ -1871,54 +1871,54 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>-11,8; 139,32</t>
+          <t>-8,92; 133,29</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-59,0; 79,05</t>
+          <t>-58,78; 67,44</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-3,76; 150,89</t>
+          <t>-0,33; 153,89</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>-85,94; 98,13</t>
+          <t>-85,34; 92,27</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>16,82; 393,82</t>
+          <t>5,91; 411,42</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>-19,74; 255,31</t>
+          <t>-23,09; 234,16</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>-20,56; 88,52</t>
+          <t>-22,9; 83,41</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>-32,9; 92,28</t>
+          <t>-31,26; 94,82</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>4,45; 122,08</t>
+          <t>2,05; 123,14</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>Malaga</t>
+          <t>Málaga</t>
         </is>
       </c>
       <c r="B28" s="3" t="inlineStr">
@@ -1981,47 +1981,47 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>-26,2; 10,09</t>
+          <t>-25,02; 8,81</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>0,92; 33,97</t>
+          <t>2,05; 32,38</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>-7,89; 24,38</t>
+          <t>-9,04; 23,43</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>-13,52; 29,43</t>
+          <t>-16,03; 26,31</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>-14,78; 25,91</t>
+          <t>-13,9; 26,8</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>-3,51; 32,06</t>
+          <t>-4,54; 31,56</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>-14,58; 12,38</t>
+          <t>-13,78; 13,41</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>-0,02; 24,53</t>
+          <t>1,16; 26,11</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>-1,92; 22,18</t>
+          <t>0,09; 23,01</t>
         </is>
       </c>
     </row>
@@ -2087,47 +2087,47 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>-47,67; 24,13</t>
+          <t>-45,39; 19,98</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>0,39; 84,19</t>
+          <t>3,17; 78,84</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>-13,79; 58,62</t>
+          <t>-16,83; 56,03</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>-22,67; 75,28</t>
+          <t>-24,71; 63,46</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>-24,06; 65,05</t>
+          <t>-22,18; 69,64</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>-5,9; 80,73</t>
+          <t>-7,38; 78,94</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
         <is>
-          <t>-26,68; 29,01</t>
+          <t>-24,96; 31,07</t>
         </is>
       </c>
       <c r="J31" s="2" t="inlineStr">
         <is>
-          <t>0,01; 56,75</t>
+          <t>2,21; 64,19</t>
         </is>
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>-2,02; 52,0</t>
+          <t>0,35; 53,78</t>
         </is>
       </c>
     </row>
@@ -2197,47 +2197,47 @@
       </c>
       <c r="C33" s="2" t="inlineStr">
         <is>
-          <t>-37,86; -4,21</t>
+          <t>-38,53; -4,88</t>
         </is>
       </c>
       <c r="D33" s="2" t="inlineStr">
         <is>
-          <t>-43,4; -6,71</t>
+          <t>-43,12; -7,56</t>
         </is>
       </c>
       <c r="E33" s="2" t="inlineStr">
         <is>
-          <t>-1,49; 26,78</t>
+          <t>-2,32; 27,49</t>
         </is>
       </c>
       <c r="F33" s="2" t="inlineStr">
         <is>
-          <t>-33,56; 13,59</t>
+          <t>-30,76; 15,12</t>
         </is>
       </c>
       <c r="G33" s="2" t="inlineStr">
         <is>
-          <t>-35,85; 13,88</t>
+          <t>-35,09; 15,16</t>
         </is>
       </c>
       <c r="H33" s="2" t="inlineStr">
         <is>
-          <t>-28,03; 11,44</t>
+          <t>-28,2; 13,28</t>
         </is>
       </c>
       <c r="I33" s="2" t="inlineStr">
         <is>
-          <t>-30,61; -0,47</t>
+          <t>-28,44; -2,12</t>
         </is>
       </c>
       <c r="J33" s="2" t="inlineStr">
         <is>
-          <t>-34,35; -4,1</t>
+          <t>-34,43; -4,72</t>
         </is>
       </c>
       <c r="K33" s="2" t="inlineStr">
         <is>
-          <t>-10,64; 13,29</t>
+          <t>-10,42; 13,19</t>
         </is>
       </c>
     </row>
@@ -2303,47 +2303,47 @@
       </c>
       <c r="C35" s="2" t="inlineStr">
         <is>
-          <t>-56,87; -6,53</t>
+          <t>-57,35; -6,76</t>
         </is>
       </c>
       <c r="D35" s="2" t="inlineStr">
         <is>
-          <t>-66,64; -12,02</t>
+          <t>-63,83; -11,72</t>
         </is>
       </c>
       <c r="E35" s="2" t="inlineStr">
         <is>
-          <t>-2,14; 48,17</t>
+          <t>-3,29; 50,39</t>
         </is>
       </c>
       <c r="F35" s="2" t="inlineStr">
         <is>
-          <t>-46,65; 25,5</t>
+          <t>-43,38; 29,23</t>
         </is>
       </c>
       <c r="G35" s="2" t="inlineStr">
         <is>
-          <t>-52,6; 25,08</t>
+          <t>-51,6; 25,41</t>
         </is>
       </c>
       <c r="H35" s="2" t="inlineStr">
         <is>
-          <t>-39,3; 21,85</t>
+          <t>-40,15; 25,3</t>
         </is>
       </c>
       <c r="I35" s="2" t="inlineStr">
         <is>
-          <t>-46,33; -1,86</t>
+          <t>-42,85; -3,54</t>
         </is>
       </c>
       <c r="J35" s="2" t="inlineStr">
         <is>
-          <t>-51,91; -7,2</t>
+          <t>-52,47; -7,95</t>
         </is>
       </c>
       <c r="K35" s="2" t="inlineStr">
         <is>
-          <t>-15,65; 22,75</t>
+          <t>-15,53; 22,85</t>
         </is>
       </c>
     </row>
@@ -2413,47 +2413,47 @@
       </c>
       <c r="C37" s="2" t="inlineStr">
         <is>
-          <t>-4,44; 10,88</t>
+          <t>-5,25; 10,3</t>
         </is>
       </c>
       <c r="D37" s="2" t="inlineStr">
         <is>
-          <t>0,59; 15,06</t>
+          <t>-0,81; 13,99</t>
         </is>
       </c>
       <c r="E37" s="2" t="inlineStr">
         <is>
-          <t>1,81; 16,6</t>
+          <t>1,56; 16,46</t>
         </is>
       </c>
       <c r="F37" s="2" t="inlineStr">
         <is>
-          <t>-9,82; 9,17</t>
+          <t>-10,03; 9,21</t>
         </is>
       </c>
       <c r="G37" s="2" t="inlineStr">
         <is>
-          <t>5,95; 24,23</t>
+          <t>6,56; 24,63</t>
         </is>
       </c>
       <c r="H37" s="2" t="inlineStr">
         <is>
-          <t>3,82; 24,59</t>
+          <t>4,84; 25,38</t>
         </is>
       </c>
       <c r="I37" s="2" t="inlineStr">
         <is>
-          <t>-4,35; 7,32</t>
+          <t>-4,21; 7,42</t>
         </is>
       </c>
       <c r="J37" s="2" t="inlineStr">
         <is>
-          <t>4,77; 16,24</t>
+          <t>4,49; 16,13</t>
         </is>
       </c>
       <c r="K37" s="2" t="inlineStr">
         <is>
-          <t>5,7; 18,53</t>
+          <t>5,64; 17,91</t>
         </is>
       </c>
     </row>
@@ -2519,47 +2519,47 @@
       </c>
       <c r="C39" s="2" t="inlineStr">
         <is>
-          <t>-8,12; 21,85</t>
+          <t>-9,27; 20,97</t>
         </is>
       </c>
       <c r="D39" s="2" t="inlineStr">
         <is>
-          <t>1,06; 30,57</t>
+          <t>-1,45; 27,9</t>
         </is>
       </c>
       <c r="E39" s="2" t="inlineStr">
         <is>
-          <t>3,4; 34,08</t>
+          <t>2,88; 33,9</t>
         </is>
       </c>
       <c r="F39" s="2" t="inlineStr">
         <is>
-          <t>-17,65; 19,28</t>
+          <t>-17,86; 19,86</t>
         </is>
       </c>
       <c r="G39" s="2" t="inlineStr">
         <is>
-          <t>10,39; 52,6</t>
+          <t>11,58; 54,02</t>
         </is>
       </c>
       <c r="H39" s="2" t="inlineStr">
         <is>
-          <t>6,64; 52,33</t>
+          <t>8,3; 54,0</t>
         </is>
       </c>
       <c r="I39" s="2" t="inlineStr">
         <is>
-          <t>-7,96; 14,97</t>
+          <t>-7,82; 15,19</t>
         </is>
       </c>
       <c r="J39" s="2" t="inlineStr">
         <is>
-          <t>9,31; 32,96</t>
+          <t>8,28; 32,51</t>
         </is>
       </c>
       <c r="K39" s="2" t="inlineStr">
         <is>
-          <t>10,26; 36,55</t>
+          <t>10,6; 36,72</t>
         </is>
       </c>
     </row>
